--- a/test_back/test_documentation/lego_performance_tests.xlsx
+++ b/test_back/test_documentation/lego_performance_tests.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\faculty\an3\ai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\faculty\an3\ai\lego\test_back\test_documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,19 +26,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="15">
   <si>
-    <t>module</t>
-  </si>
-  <si>
     <t>figura11</t>
-  </si>
-  <si>
-    <t>figura</t>
-  </si>
-  <si>
-    <t>iterations</t>
-  </si>
-  <si>
-    <t>time(seconds)</t>
   </si>
   <si>
     <t xml:space="preserve">0.0014677047729492188
@@ -70,6 +58,18 @@
   </si>
   <si>
     <t>input_output.input_validation</t>
+  </si>
+  <si>
+    <t>JSON File</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Iterations</t>
+  </si>
+  <si>
+    <t>Time(seconds)</t>
   </si>
 </sst>
 </file>
@@ -111,148 +111,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -531,7 +390,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M60" sqref="M60"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,50 +403,50 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -596,18 +455,18 @@
         <v>2.9981136322021402E-3</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -616,18 +475,18 @@
         <v>2.6064395904540998E-2</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>1000</v>
@@ -636,18 +495,18 @@
         <v>0.25870633125305098</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>10000</v>
@@ -656,18 +515,18 @@
         <v>2.44547319412231</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>100000</v>
@@ -676,18 +535,18 @@
         <v>24.396912336349398</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -696,18 +555,18 @@
         <v>1.9745826721191402E-3</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -716,18 +575,18 @@
         <v>1.59981250762939E-2</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -736,18 +595,18 @@
         <v>0.14799952507019001</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>1000</v>
@@ -756,18 +615,18 @@
         <v>1.4799990653991699</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>10000</v>
@@ -776,18 +635,18 @@
         <v>13.6753280162811</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>100000</v>
@@ -796,18 +655,18 @@
         <v>143.10634732246399</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -816,18 +675,18 @@
         <v>1.3529777526855399E-2</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -836,18 +695,18 @@
         <v>4.0373802185058498E-3</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C16">
         <v>100</v>
@@ -856,18 +715,18 @@
         <v>3.1088113784790001E-2</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C17">
         <v>1000</v>
@@ -876,18 +735,18 @@
         <v>0.32085299491882302</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>10000</v>
@@ -896,18 +755,18 @@
         <v>3.4441556930541899</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>100000</v>
@@ -916,18 +775,18 @@
         <v>32.937574625015202</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -936,18 +795,18 @@
         <v>2.13780403137207E-2</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>10</v>
@@ -956,18 +815,18 @@
         <v>2.99668312072753E-3</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <v>100</v>
@@ -976,18 +835,18 @@
         <v>2.7068853378295898E-2</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>1000</v>
@@ -996,18 +855,18 @@
         <v>0.28578901290893499</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C24">
         <v>10000</v>
@@ -1016,18 +875,18 @@
         <v>2.7382538318634002</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <v>100000</v>
@@ -1036,18 +895,18 @@
         <v>28.106776714324901</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1056,18 +915,18 @@
         <v>3.0291795730590799E-2</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C27">
         <v>10</v>
@@ -1076,18 +935,18 @@
         <v>6.0474872589111302E-3</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C28">
         <v>100</v>
@@ -1096,18 +955,18 @@
         <v>5.3109407424926702E-2</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C29">
         <v>1000</v>
@@ -1116,18 +975,18 @@
         <v>0.50333833694457997</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C30">
         <v>10000</v>
@@ -1136,18 +995,18 @@
         <v>5.2179002761840803</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C31">
         <v>100000</v>
@@ -1156,18 +1015,18 @@
         <v>52.195796012878397</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1184,10 +1043,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C33">
         <v>10</v>
@@ -1204,10 +1063,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C34">
         <v>100</v>
@@ -1224,10 +1083,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C35">
         <v>1000</v>
@@ -1244,10 +1103,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C36">
         <v>10000</v>
@@ -1264,10 +1123,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C37">
         <v>100000</v>
@@ -1284,10 +1143,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1304,10 +1163,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C39">
         <v>10</v>
@@ -1324,10 +1183,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C40">
         <v>100</v>
@@ -1344,10 +1203,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C41">
         <v>1000</v>
@@ -1364,10 +1223,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C42">
         <v>10000</v>
@@ -1384,10 +1243,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C43">
         <v>100000</v>
@@ -1404,10 +1263,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1424,10 +1283,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C45">
         <v>10</v>
@@ -1444,10 +1303,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C46">
         <v>100</v>
@@ -1464,10 +1323,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C47">
         <v>1000</v>
@@ -1484,10 +1343,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C48">
         <v>10000</v>
@@ -1504,10 +1363,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C49">
         <v>100000</v>
@@ -1524,10 +1383,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1544,10 +1403,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C51">
         <v>10</v>
@@ -1564,10 +1423,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C52">
         <v>100</v>
@@ -1584,10 +1443,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C53">
         <v>1000</v>
@@ -1604,10 +1463,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C54">
         <v>10000</v>
@@ -1624,10 +1483,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C55">
         <v>100000</v>
@@ -1644,10 +1503,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -1664,10 +1523,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C57">
         <v>10</v>
@@ -1684,10 +1543,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C58">
         <v>100</v>
@@ -1704,10 +1563,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C59">
         <v>1000</v>
@@ -1724,10 +1583,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C60">
         <v>10000</v>
@@ -1744,10 +1603,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C61">
         <v>100000</v>
